--- a/data/sensor_metadata/mozambique_missing_aim2_data.xlsx
+++ b/data/sensor_metadata/mozambique_missing_aim2_data.xlsx
@@ -6,17 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="urban" r:id="rId3" sheetId="1"/>
+    <sheet name="rural" r:id="rId3" sheetId="1"/>
+    <sheet name="urban" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="214">
   <si>
     <t>rec_id</t>
   </si>
   <si>
+    <t>date_enrolled</t>
+  </si>
+  <si>
     <t>sensor_id</t>
   </si>
   <si>
@@ -209,6 +213,348 @@
     <t>59</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>B4085BC6</t>
+  </si>
+  <si>
+    <t>74AB3804</t>
+  </si>
+  <si>
+    <t>DAFFE02B</t>
+  </si>
+  <si>
+    <t>CDBO1555</t>
+  </si>
+  <si>
+    <t>9FDAO8E8</t>
+  </si>
+  <si>
+    <t>E8CD7648</t>
+  </si>
+  <si>
+    <t>0C0516EA</t>
+  </si>
+  <si>
+    <t>FEBB80F9</t>
+  </si>
+  <si>
+    <t>B84335BO</t>
+  </si>
+  <si>
+    <t>25085364</t>
+  </si>
+  <si>
+    <t>6F809378</t>
+  </si>
+  <si>
+    <t>ED88F3BC</t>
+  </si>
+  <si>
+    <t>D5401713</t>
+  </si>
+  <si>
+    <t>645D507B</t>
+  </si>
+  <si>
+    <t>60573963</t>
+  </si>
+  <si>
+    <t>FA7EB708</t>
+  </si>
+  <si>
+    <t>2B163D28</t>
+  </si>
+  <si>
+    <t>37623D02</t>
+  </si>
+  <si>
+    <t>77AD067C</t>
+  </si>
+  <si>
+    <t>3023EF9B</t>
+  </si>
+  <si>
+    <t>B2F44820</t>
+  </si>
+  <si>
+    <t>EB1D0ABF</t>
+  </si>
+  <si>
+    <t>OCO516EA</t>
+  </si>
+  <si>
+    <t>6O4842FC</t>
+  </si>
+  <si>
+    <t>71E15B45</t>
+  </si>
+  <si>
+    <t>9B94F05O</t>
+  </si>
+  <si>
+    <t>O3OD199D</t>
+  </si>
+  <si>
+    <t>7B94F050</t>
+  </si>
+  <si>
+    <t>7O74A528</t>
+  </si>
+  <si>
+    <t>D54O1F13</t>
+  </si>
+  <si>
+    <t>144BFE9O</t>
+  </si>
+  <si>
+    <t>D36O933D</t>
+  </si>
+  <si>
+    <t>256E25CB</t>
+  </si>
+  <si>
+    <t>25O85364</t>
+  </si>
+  <si>
+    <t>62D78CD2</t>
+  </si>
+  <si>
+    <t>645D5O7B</t>
+  </si>
+  <si>
+    <t>84085BC6</t>
+  </si>
+  <si>
+    <t>ADF8D142</t>
+  </si>
+  <si>
+    <t>63DD4OBD</t>
+  </si>
+  <si>
+    <t>37623DO2</t>
+  </si>
+  <si>
+    <t>OD9F0693</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>6-11mo</t>
+  </si>
+  <si>
+    <t>&lt;6mo</t>
+  </si>
+  <si>
+    <t>30-39y</t>
+  </si>
+  <si>
+    <t>5-9y</t>
+  </si>
+  <si>
+    <t>20-29y</t>
+  </si>
+  <si>
+    <t>1-4y</t>
+  </si>
+  <si>
+    <t>15-19y</t>
+  </si>
+  <si>
+    <t>60+y</t>
+  </si>
+  <si>
+    <t>10-14y</t>
+  </si>
+  <si>
+    <t>40-59y</t>
+  </si>
+  <si>
     <t>6373E09A</t>
   </si>
   <si>
@@ -309,49 +655,15 @@
   </si>
   <si>
     <t>3C114B9C</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>6-11mo</t>
-  </si>
-  <si>
-    <t>&lt;6mo</t>
-  </si>
-  <si>
-    <t>15-19y</t>
-  </si>
-  <si>
-    <t>1-4y</t>
-  </si>
-  <si>
-    <t>40-59y</t>
-  </si>
-  <si>
-    <t>30-39y</t>
-  </si>
-  <si>
-    <t>20-29y</t>
-  </si>
-  <si>
-    <t>5-9y</t>
-  </si>
-  <si>
-    <t>10-14y</t>
-  </si>
-  <si>
-    <t>60+y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -381,8 +693,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -415,1362 +731,4019 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>44348.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>44348.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>477.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>44358.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>847.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>44406.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>851.0</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>44406.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>44399.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="n">
+        <v>927.0</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>44424.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="n">
+        <v>938.0</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>44422.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1235.0</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>44474.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1331.0</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>44483.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1402.0</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>44497.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1447.0</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1469.0</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1676.0</v>
+      </c>
+      <c r="C17" t="n" s="2">
+        <v>44530.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1695.0</v>
+      </c>
+      <c r="C18" t="n" s="2">
+        <v>44529.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1815.0</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>44624.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6848.0</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>44630.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6850.0</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>44631.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="n">
+        <v>405.0</v>
+      </c>
+      <c r="C22" t="n" s="2">
+        <v>44348.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="C23" t="n" s="2">
+        <v>44348.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n">
+        <v>422.0</v>
+      </c>
+      <c r="C24" t="n" s="2">
+        <v>44350.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="n">
+        <v>443.0</v>
+      </c>
+      <c r="C25" t="n" s="2">
+        <v>44350.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="C26" t="n" s="2">
+        <v>44350.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="n">
+        <v>468.0</v>
+      </c>
+      <c r="C27" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="C28" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="C29" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="n">
+        <v>479.0</v>
+      </c>
+      <c r="C30" t="n" s="2">
+        <v>44358.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="n">
+        <v>523.0</v>
+      </c>
+      <c r="C31" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="n">
+        <v>528.0</v>
+      </c>
+      <c r="C32" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="C33" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>531.0</v>
+      </c>
+      <c r="C34" t="n" s="2">
+        <v>44357.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="C35" t="n" s="2">
+        <v>44393.0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>718.0</v>
+      </c>
+      <c r="C36" t="n" s="2">
+        <v>44393.0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>721.0</v>
+      </c>
+      <c r="C37" t="n" s="2">
+        <v>44393.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37" t="s">
+        <v>168</v>
+      </c>
+      <c r="H37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="n">
+        <v>756.0</v>
+      </c>
+      <c r="C38" t="n" s="2">
+        <v>44396.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="n">
+        <v>776.0</v>
+      </c>
+      <c r="C39" t="n" s="2">
+        <v>44399.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="C40" t="n" s="2">
+        <v>44399.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>781.0</v>
+      </c>
+      <c r="C41" t="n" s="2">
+        <v>44399.0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>783.0</v>
+      </c>
+      <c r="C42" t="n" s="2">
+        <v>44399.0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="n">
+        <v>824.0</v>
+      </c>
+      <c r="C43" t="n" s="2">
+        <v>44413.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="n">
+        <v>839.0</v>
+      </c>
+      <c r="C44" t="n" s="2">
+        <v>44413.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="C45" t="n" s="2">
+        <v>44406.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45" t="s">
+        <v>169</v>
+      </c>
+      <c r="H45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="n">
+        <v>868.0</v>
+      </c>
+      <c r="C46" t="n" s="2">
+        <v>44396.0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="n">
+        <v>871.0</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>44396.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="n">
+        <v>875.0</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>44396.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48" t="s">
+        <v>168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="n">
+        <v>878.0</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>44399.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="n">
+        <v>879.0</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>44399.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50" t="s">
+        <v>168</v>
+      </c>
+      <c r="H50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="n">
+        <v>890.0</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>44413.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="n">
+        <v>891.0</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>44413.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>920.0</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>44424.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="n">
+        <v>924.0</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>44424.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="n">
+        <v>925.0</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>44424.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>44422.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56" t="s">
+        <v>168</v>
+      </c>
+      <c r="H56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="n">
+        <v>936.0</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>44422.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="n">
+        <v>989.0</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59" t="s">
+        <v>169</v>
+      </c>
+      <c r="H59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="n">
+        <v>993.0</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="n">
+        <v>995.0</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61" t="s">
+        <v>169</v>
+      </c>
+      <c r="H61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1001.0</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1002.0</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>169</v>
+      </c>
+      <c r="H63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1006.0</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64" t="s">
+        <v>169</v>
+      </c>
+      <c r="H64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1008.0</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>44434.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>168</v>
+      </c>
+      <c r="H65" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1049.0</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>44442.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>168</v>
+      </c>
+      <c r="H66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1060.0</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>44442.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67" t="s">
+        <v>169</v>
+      </c>
+      <c r="H67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1062.0</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>44442.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1063.0</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>44442.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1064.0</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>44442.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70" t="s">
+        <v>168</v>
+      </c>
+      <c r="H70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1070.0</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>44442.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>168</v>
+      </c>
+      <c r="H71" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1091.0</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>44445.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>169</v>
+      </c>
+      <c r="H72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1094.0</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>44446.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>169</v>
+      </c>
+      <c r="H73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1095.0</v>
+      </c>
+      <c r="C74" t="n" s="2">
+        <v>44446.0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>168</v>
+      </c>
+      <c r="H74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1160.0</v>
+      </c>
+      <c r="C75" t="n" s="2">
+        <v>44456.0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75" t="s">
+        <v>169</v>
+      </c>
+      <c r="H75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1203.0</v>
+      </c>
+      <c r="C76" t="n" s="2">
+        <v>44463.0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1208.0</v>
+      </c>
+      <c r="C77" t="n" s="2">
+        <v>44466.0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>132</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1219.0</v>
+      </c>
+      <c r="C78" t="n" s="2">
+        <v>44463.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78" t="s">
+        <v>168</v>
+      </c>
+      <c r="H78" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1220.0</v>
+      </c>
+      <c r="C79" t="n" s="2">
+        <v>44463.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>169</v>
+      </c>
+      <c r="H79" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1222.0</v>
+      </c>
+      <c r="C80" t="n" s="2">
+        <v>44463.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>168</v>
+      </c>
+      <c r="H80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1223.0</v>
+      </c>
+      <c r="C81" t="n" s="2">
+        <v>44463.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>168</v>
+      </c>
+      <c r="H81" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1224.0</v>
+      </c>
+      <c r="C82" t="n" s="2">
+        <v>44466.0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="C83" t="n" s="2">
+        <v>44466.0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>128</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83" t="s">
+        <v>168</v>
+      </c>
+      <c r="H83" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1227.0</v>
+      </c>
+      <c r="C84" t="n" s="2">
+        <v>44466.0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>168</v>
+      </c>
+      <c r="H84" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1229.0</v>
+      </c>
+      <c r="C85" t="n" s="2">
+        <v>44466.0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>169</v>
+      </c>
+      <c r="H85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1240.0</v>
+      </c>
+      <c r="C86" t="n" s="2">
+        <v>44474.0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86" t="s">
+        <v>169</v>
+      </c>
+      <c r="H86" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1262.0</v>
+      </c>
+      <c r="C87" t="n" s="2">
+        <v>44478.0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>133</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87" t="s">
+        <v>169</v>
+      </c>
+      <c r="H87" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1294.0</v>
+      </c>
+      <c r="C88" t="n" s="2">
+        <v>44474.0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88" t="s">
+        <v>168</v>
+      </c>
+      <c r="H88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1298.0</v>
+      </c>
+      <c r="C89" t="n" s="2">
+        <v>44477.0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89" t="s">
+        <v>168</v>
+      </c>
+      <c r="H89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1399.0</v>
+      </c>
+      <c r="C90" t="n" s="2">
+        <v>44497.0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90" t="s">
+        <v>168</v>
+      </c>
+      <c r="H90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1400.0</v>
+      </c>
+      <c r="C91" t="n" s="2">
+        <v>44497.0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>132</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91" t="s">
+        <v>168</v>
+      </c>
+      <c r="H91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1421.0</v>
+      </c>
+      <c r="C92" t="n" s="2">
+        <v>44504.0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92" t="s">
+        <v>169</v>
+      </c>
+      <c r="H92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1434.0</v>
+      </c>
+      <c r="C93" t="n" s="2">
+        <v>44495.0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>144</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93" t="s">
+        <v>169</v>
+      </c>
+      <c r="H93" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1435.0</v>
+      </c>
+      <c r="C94" t="n" s="2">
+        <v>44495.0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94" t="s">
+        <v>169</v>
+      </c>
+      <c r="H94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1436.0</v>
+      </c>
+      <c r="C95" t="n" s="2">
+        <v>44495.0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>148</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95" t="s">
+        <v>168</v>
+      </c>
+      <c r="H95" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1443.0</v>
+      </c>
+      <c r="C96" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>161</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96" t="s">
+        <v>169</v>
+      </c>
+      <c r="H96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1444.0</v>
+      </c>
+      <c r="C97" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>127</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97" t="s">
+        <v>169</v>
+      </c>
+      <c r="H97" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1446.0</v>
+      </c>
+      <c r="C98" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>134</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98" t="s">
+        <v>169</v>
+      </c>
+      <c r="H98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1463.0</v>
+      </c>
+      <c r="C99" t="n" s="2">
+        <v>44498.0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99" t="s">
+        <v>169</v>
+      </c>
+      <c r="H99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1466.0</v>
+      </c>
+      <c r="C100" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>147</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100" t="s">
+        <v>168</v>
+      </c>
+      <c r="H100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1467.0</v>
+      </c>
+      <c r="C101" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>128</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101" t="s">
+        <v>169</v>
+      </c>
+      <c r="H101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1468.0</v>
+      </c>
+      <c r="C102" t="n" s="2">
+        <v>44501.0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102" t="s">
+        <v>169</v>
+      </c>
+      <c r="H102" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1555.0</v>
+      </c>
+      <c r="C103" t="n" s="2">
+        <v>44509.0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>143</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103" t="s">
+        <v>169</v>
+      </c>
+      <c r="H103" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1597.0</v>
+      </c>
+      <c r="C104" t="n" s="2">
+        <v>44515.0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104" t="s">
+        <v>169</v>
+      </c>
+      <c r="H104" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1642.0</v>
+      </c>
+      <c r="C105" t="n" s="2">
+        <v>44529.0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>168</v>
+      </c>
+      <c r="H105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1648.0</v>
+      </c>
+      <c r="C106" t="n" s="2">
+        <v>44530.0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>132</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106" t="s">
+        <v>168</v>
+      </c>
+      <c r="H106" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1660.0</v>
+      </c>
+      <c r="C107" t="n" s="2">
+        <v>44532.0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>167</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107" t="s">
+        <v>168</v>
+      </c>
+      <c r="H107" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1662.0</v>
+      </c>
+      <c r="C108" t="n" s="2">
+        <v>44532.0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108" t="s">
+        <v>169</v>
+      </c>
+      <c r="H108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1666.0</v>
+      </c>
+      <c r="C109" t="n" s="2">
+        <v>44529.0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109" t="s">
+        <v>169</v>
+      </c>
+      <c r="H109" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1668.0</v>
+      </c>
+      <c r="C110" t="n" s="2">
+        <v>44529.0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110" t="s">
+        <v>169</v>
+      </c>
+      <c r="H110" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1672.0</v>
+      </c>
+      <c r="C111" t="n" s="2">
+        <v>44530.0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111" t="s">
+        <v>169</v>
+      </c>
+      <c r="H111" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1675.0</v>
+      </c>
+      <c r="C112" t="n" s="2">
+        <v>44530.0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>129</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112" t="s">
+        <v>168</v>
+      </c>
+      <c r="H112" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1678.0</v>
+      </c>
+      <c r="C113" t="n" s="2">
+        <v>44530.0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113" t="s">
+        <v>169</v>
+      </c>
+      <c r="H113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1682.0</v>
+      </c>
+      <c r="C114" t="n" s="2">
+        <v>44532.0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>161</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114" t="s">
+        <v>169</v>
+      </c>
+      <c r="H114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1683.0</v>
+      </c>
+      <c r="C115" t="n" s="2">
+        <v>44532.0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115" t="s">
+        <v>168</v>
+      </c>
+      <c r="H115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1689.0</v>
+      </c>
+      <c r="C116" t="n" s="2">
+        <v>44532.0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>146</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116" t="s">
+        <v>168</v>
+      </c>
+      <c r="H116" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1694.0</v>
+      </c>
+      <c r="C117" t="n" s="2">
+        <v>44529.0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117" t="s">
+        <v>168</v>
+      </c>
+      <c r="H117" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1696.0</v>
+      </c>
+      <c r="C118" t="n" s="2">
+        <v>44532.0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118" t="s">
+        <v>169</v>
+      </c>
+      <c r="H118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="C119" t="n" s="2">
+        <v>44624.0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>169</v>
+      </c>
+      <c r="H119" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1828.0</v>
+      </c>
+      <c r="C120" t="n" s="2">
+        <v>44624.0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>169</v>
+      </c>
+      <c r="H120" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6843.0</v>
+      </c>
+      <c r="C121" t="n" s="2">
+        <v>44630.0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>148</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>169</v>
+      </c>
+      <c r="H121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="n">
         <v>1111.0</v>
       </c>
-      <c r="C2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2" t="n" s="4">
+        <v>44444.0</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" t="n">
         <v>1.0</v>
       </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>168</v>
+      </c>
+      <c r="H2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
         <v>1516.0</v>
       </c>
-      <c r="C3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" t="n" s="4">
+        <v>44502.0</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="n">
         <v>1.0</v>
       </c>
-      <c r="F3" t="s">
-        <v>99</v>
-      </c>
       <c r="G3" t="s">
-        <v>102</v>
+        <v>168</v>
+      </c>
+      <c r="H3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>1527.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C4" t="n" s="4">
+        <v>44507.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="n">
         <v>1.0</v>
       </c>
-      <c r="F4" t="s">
-        <v>100</v>
-      </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="H4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>1955.0</v>
       </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C5" t="n" s="4">
+        <v>44593.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="n">
         <v>1.0</v>
       </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>169</v>
+      </c>
+      <c r="H5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>2259.0</v>
       </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F6" t="s">
-        <v>100</v>
-      </c>
+      <c r="C6" t="n" s="4">
+        <v>44491.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>169</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>435.0</v>
       </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F7" t="s">
-        <v>99</v>
-      </c>
+      <c r="C7" t="n" s="4">
+        <v>44353.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
         <v>458.0</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F8" t="s">
-        <v>100</v>
-      </c>
+      <c r="C8" t="n" s="4">
+        <v>44344.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="H8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
         <v>578.0</v>
       </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="s">
-        <v>99</v>
-      </c>
+      <c r="C9" t="n" s="4">
+        <v>44367.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>579.0</v>
       </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
+      <c r="C10" t="n" s="4">
+        <v>44367.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>169</v>
+      </c>
+      <c r="H10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>598.0</v>
       </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="C11" t="n" s="4">
+        <v>44368.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="n">
         <v>1.0</v>
       </c>
-      <c r="F11" t="s">
-        <v>99</v>
-      </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="H11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
         <v>661.0</v>
       </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F12" t="s">
-        <v>100</v>
-      </c>
+      <c r="C12" t="n" s="4">
+        <v>44381.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
         <v>663.0</v>
       </c>
-      <c r="C13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="C13" t="n" s="4">
+        <v>44381.0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="n">
         <v>1.0</v>
       </c>
-      <c r="F13" t="s">
-        <v>99</v>
-      </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="H13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
         <v>708.0</v>
       </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
+      <c r="C14" t="n" s="4">
+        <v>44391.0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>169</v>
+      </c>
+      <c r="H14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
         <v>736.0</v>
       </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F15" t="s">
-        <v>99</v>
-      </c>
+      <c r="C15" t="n" s="4">
+        <v>44395.0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>168</v>
+      </c>
+      <c r="H15" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" t="n">
         <v>737.0</v>
       </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
+      <c r="C16" t="n" s="4">
+        <v>44395.0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>168</v>
+      </c>
+      <c r="H16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="n">
         <v>746.0</v>
       </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F17" t="s">
-        <v>99</v>
-      </c>
+      <c r="C17" t="n" s="4">
+        <v>44388.0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>168</v>
+      </c>
+      <c r="H17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n">
         <v>899.0</v>
       </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F18" t="s">
-        <v>100</v>
-      </c>
+      <c r="C18" t="n" s="4">
+        <v>44416.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>169</v>
+      </c>
+      <c r="H18" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="n">
         <v>903.0</v>
       </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
+      <c r="C19" t="n" s="4">
+        <v>44414.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>168</v>
+      </c>
+      <c r="H19" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" t="n">
         <v>904.0</v>
       </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C20" t="n" s="4">
+        <v>44414.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>169</v>
+      </c>
+      <c r="H20" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="n">
         <v>905.0</v>
       </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E21" t="n">
+      <c r="C21" t="n" s="4">
+        <v>44414.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="n">
         <v>1.0</v>
       </c>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="n">
         <v>906.0</v>
       </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F22" t="s">
-        <v>100</v>
-      </c>
+      <c r="C22" t="n" s="4">
+        <v>44414.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="H22" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>909.0</v>
       </c>
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F23" t="s">
-        <v>100</v>
-      </c>
+      <c r="C23" t="n" s="4">
+        <v>44414.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H23" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="n">
         <v>966.0</v>
       </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F24" t="s">
-        <v>100</v>
-      </c>
+      <c r="C24" t="n" s="4">
+        <v>44430.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24" t="s">
-        <v>103</v>
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" t="n">
         <v>967.0</v>
       </c>
-      <c r="C25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F25" t="s">
-        <v>99</v>
-      </c>
+      <c r="C25" t="n" s="4">
+        <v>44430.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>168</v>
+      </c>
+      <c r="H25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="n">
         <v>969.0</v>
       </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F26" t="s">
-        <v>100</v>
-      </c>
+      <c r="C26" t="n" s="4">
+        <v>44430.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>169</v>
+      </c>
+      <c r="H26" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="n">
         <v>972.0</v>
       </c>
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F27" t="s">
-        <v>99</v>
-      </c>
+      <c r="C27" t="n" s="4">
+        <v>44430.0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
       <c r="G27" t="s">
-        <v>106</v>
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="n">
         <v>1032.0</v>
       </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F28" t="s">
-        <v>100</v>
-      </c>
+      <c r="C28" t="n" s="4">
+        <v>44437.0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>169</v>
+      </c>
+      <c r="H28" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="n">
         <v>1033.0</v>
       </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="C29" t="n" s="4">
+        <v>44437.0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="n">
         <v>1.0</v>
       </c>
-      <c r="F29" t="s">
-        <v>100</v>
-      </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="H29" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="n">
         <v>1041.0</v>
       </c>
-      <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F30" t="s">
-        <v>99</v>
-      </c>
+      <c r="C30" t="n" s="4">
+        <v>44431.0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>168</v>
+      </c>
+      <c r="H30" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="n">
         <v>1109.0</v>
       </c>
-      <c r="C31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F31" t="s">
-        <v>99</v>
-      </c>
+      <c r="C31" t="n" s="4">
+        <v>44444.0</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="n">
         <v>1110.0</v>
       </c>
-      <c r="C32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F32" t="s">
-        <v>100</v>
-      </c>
+      <c r="C32" t="n" s="4">
+        <v>44444.0</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H32" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="n">
         <v>1130.0</v>
       </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F33" t="s">
-        <v>100</v>
-      </c>
+      <c r="C33" t="n" s="4">
+        <v>44451.0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H33" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
         <v>1184.0</v>
       </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" t="s">
-        <v>99</v>
-      </c>
+      <c r="C34" t="n" s="4">
+        <v>44462.0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
-        <v>103</v>
+        <v>168</v>
+      </c>
+      <c r="H34" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="n">
         <v>1188.0</v>
       </c>
-      <c r="C35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F35" t="s">
-        <v>99</v>
-      </c>
+      <c r="C35" t="n" s="4">
+        <v>44453.0</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
-        <v>105</v>
+        <v>168</v>
+      </c>
+      <c r="H35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="n">
         <v>1191.0</v>
       </c>
-      <c r="C36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F36" t="s">
-        <v>100</v>
-      </c>
+      <c r="C36" t="n" s="4">
+        <v>44455.0</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>169</v>
+      </c>
+      <c r="H36" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="n">
         <v>1253.0</v>
       </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="C37" t="n" s="4">
+        <v>44462.0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="n">
         <v>0.0</v>
       </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
       <c r="G37" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="H37" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="n">
         <v>1255.0</v>
       </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="C38" t="n" s="4">
+        <v>44462.0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="n">
         <v>0.0</v>
       </c>
-      <c r="F38" t="s">
-        <v>100</v>
-      </c>
       <c r="G38" t="s">
-        <v>109</v>
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" t="n">
         <v>1278.0</v>
       </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F39" t="s">
-        <v>100</v>
-      </c>
+      <c r="C39" t="n" s="4">
+        <v>44462.0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39"/>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H39" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="n">
         <v>1279.0</v>
       </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
-      <c r="D40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="C40" t="n" s="4">
+        <v>44462.0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="n">
         <v>1.0</v>
       </c>
-      <c r="F40" t="s">
-        <v>99</v>
-      </c>
       <c r="G40" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="H40" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="n">
         <v>1314.0</v>
       </c>
-      <c r="C41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F41" t="s">
-        <v>99</v>
-      </c>
+      <c r="C41" t="n" s="4">
+        <v>44478.0</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" t="n">
         <v>1315.0</v>
       </c>
-      <c r="C42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E42" t="n">
+      <c r="C42" t="n" s="4">
+        <v>44478.0</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42" t="n">
         <v>0.0</v>
       </c>
-      <c r="F42" t="s">
-        <v>99</v>
-      </c>
       <c r="G42" t="s">
-        <v>106</v>
+        <v>168</v>
+      </c>
+      <c r="H42" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="n">
         <v>1343.0</v>
       </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F43" t="s">
-        <v>100</v>
-      </c>
+      <c r="C43" t="n" s="4">
+        <v>44484.0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>169</v>
+      </c>
+      <c r="H43" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="n">
         <v>1369.0</v>
       </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F44" t="s">
-        <v>99</v>
-      </c>
+      <c r="C44" t="n" s="4">
+        <v>44486.0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
       <c r="G44" t="s">
-        <v>105</v>
+        <v>168</v>
+      </c>
+      <c r="H44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="n">
         <v>1486.0</v>
       </c>
-      <c r="C45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F45" t="s">
-        <v>100</v>
-      </c>
+      <c r="C45" t="n" s="4">
+        <v>44495.0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>209</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" t="n">
         <v>1493.0</v>
       </c>
-      <c r="C46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="C46" t="n" s="4">
+        <v>44507.0</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46" t="n">
         <v>0.0</v>
       </c>
-      <c r="F46" t="s">
-        <v>100</v>
-      </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H46" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="n">
         <v>1494.0</v>
       </c>
-      <c r="C47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="C47" t="n" s="4">
+        <v>44507.0</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47" t="n">
         <v>1.0</v>
       </c>
-      <c r="F47" t="s">
-        <v>99</v>
-      </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="H47" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" t="n">
         <v>1495.0</v>
       </c>
-      <c r="C48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F48" t="s">
-        <v>99</v>
-      </c>
+      <c r="C48" t="n" s="4">
+        <v>44507.0</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>168</v>
+      </c>
+      <c r="H48" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" t="n">
         <v>1510.0</v>
       </c>
-      <c r="C49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F49" t="s">
-        <v>100</v>
-      </c>
+      <c r="C49" t="n" s="4">
+        <v>44502.0</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H49" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" t="n">
         <v>1511.0</v>
       </c>
-      <c r="C50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
-      </c>
+      <c r="C50" t="n" s="4">
+        <v>44502.0</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="H50" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" t="n">
         <v>1514.0</v>
       </c>
-      <c r="C51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
-      </c>
+      <c r="C51" t="n" s="4">
+        <v>44502.0</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>169</v>
+      </c>
+      <c r="H51" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" t="n">
         <v>1522.0</v>
       </c>
-      <c r="C52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
-      </c>
+      <c r="C52" t="n" s="4">
+        <v>44508.0</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
       <c r="G52" t="s">
-        <v>108</v>
+        <v>168</v>
+      </c>
+      <c r="H52" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="n">
         <v>1566.0</v>
       </c>
-      <c r="C53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="C53" t="n" s="4">
+        <v>44517.0</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53" t="n">
         <v>0.0</v>
       </c>
-      <c r="F53" t="s">
-        <v>100</v>
-      </c>
       <c r="G53" t="s">
-        <v>106</v>
+        <v>169</v>
+      </c>
+      <c r="H53" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="n">
         <v>1631.0</v>
       </c>
-      <c r="C54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
-      </c>
+      <c r="C54" t="n" s="4">
+        <v>44525.0</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54" t="s">
-        <v>105</v>
+        <v>169</v>
+      </c>
+      <c r="H54" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" t="n">
         <v>1686.0</v>
       </c>
-      <c r="C55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
+      <c r="C55" t="n" s="4">
+        <v>44532.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55" t="s">
-        <v>109</v>
+        <v>168</v>
+      </c>
+      <c r="H55" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="n">
         <v>1738.0</v>
       </c>
-      <c r="C56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F56" t="s">
-        <v>100</v>
-      </c>
+      <c r="C56" t="n" s="4">
+        <v>44531.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>211</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" t="s">
-        <v>106</v>
+        <v>169</v>
+      </c>
+      <c r="H56" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" t="n">
         <v>1859.0</v>
       </c>
-      <c r="C57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F57" t="s">
-        <v>99</v>
-      </c>
+      <c r="C57" t="n" s="4">
+        <v>44579.0</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
       <c r="G57" t="s">
-        <v>110</v>
+        <v>168</v>
+      </c>
+      <c r="H57" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" t="n">
         <v>1897.0</v>
       </c>
-      <c r="C58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F58" t="s">
-        <v>99</v>
-      </c>
+      <c r="C58" t="n" s="4">
+        <v>44580.0</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
       <c r="G58" t="s">
-        <v>110</v>
+        <v>168</v>
+      </c>
+      <c r="H58" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" t="n">
         <v>2230.0</v>
       </c>
-      <c r="C59" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="C59" t="n" s="4">
+        <v>44521.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="n">
         <v>1.0</v>
       </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
       <c r="G59" t="s">
-        <v>104</v>
+        <v>168</v>
+      </c>
+      <c r="H59" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" t="n">
         <v>2256.0</v>
       </c>
-      <c r="C60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F60" t="s">
-        <v>100</v>
-      </c>
+      <c r="C60" t="n" s="4">
+        <v>44544.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>213</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60"/>
       <c r="G60" t="s">
-        <v>105</v>
+        <v>169</v>
+      </c>
+      <c r="H60" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2043,9 +5016,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8DC6F0D-DBE4-4609-B27B-2EB855C22A20}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85B4F4-0E6C-42C8-B610-F9D631AE36C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B1241AF-9C14-4931-A4BA-AFF6832DFEF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4958BB8C-F17F-448A-A8E6-1FE2EA84285B}"/>
 </file>
--- a/data/sensor_metadata/mozambique_missing_aim2_data.xlsx
+++ b/data/sensor_metadata/mozambique_missing_aim2_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="213">
   <si>
     <t>rec_id</t>
   </si>
@@ -643,9 +643,6 @@
   </si>
   <si>
     <t>FQ29ABE0</t>
-  </si>
-  <si>
-    <t>F7C6FA98</t>
   </si>
   <si>
     <t>B287D421</t>
@@ -4621,10 +4618,10 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>1686.0</v>
+        <v>1738.0</v>
       </c>
       <c r="C55" t="n" s="4">
-        <v>44532.0</v>
+        <v>44531.0</v>
       </c>
       <c r="D55" t="s">
         <v>210</v>
@@ -4632,10 +4629,10 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H55" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56">
@@ -4643,21 +4640,19 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>1738.0</v>
+        <v>1859.0</v>
       </c>
       <c r="C56" t="n" s="4">
-        <v>44531.0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>211</v>
-      </c>
+        <v>44579.0</v>
+      </c>
+      <c r="D56"/>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H56" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57">
@@ -4665,10 +4660,10 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>1859.0</v>
+        <v>1897.0</v>
       </c>
       <c r="C57" t="n" s="4">
-        <v>44579.0</v>
+        <v>44580.0</v>
       </c>
       <c r="D57"/>
       <c r="E57"/>
@@ -4685,19 +4680,23 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>1897.0</v>
+        <v>2230.0</v>
       </c>
       <c r="C58" t="n" s="4">
-        <v>44580.0</v>
-      </c>
-      <c r="D58"/>
+        <v>44521.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>211</v>
+      </c>
       <c r="E58"/>
-      <c r="F58"/>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
       <c r="G58" t="s">
         <v>168</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59">
@@ -4705,44 +4704,20 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>2230.0</v>
+        <v>2256.0</v>
       </c>
       <c r="C59" t="n" s="4">
-        <v>44521.0</v>
+        <v>44544.0</v>
       </c>
       <c r="D59" t="s">
         <v>212</v>
       </c>
       <c r="E59"/>
-      <c r="F59" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="F59"/>
       <c r="G59" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H59" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2256.0</v>
-      </c>
-      <c r="C60" t="n" s="4">
-        <v>44544.0</v>
-      </c>
-      <c r="D60" t="s">
-        <v>213</v>
-      </c>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" t="s">
         <v>179</v>
       </c>
     </row>
@@ -5016,9 +4991,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85B4F4-0E6C-42C8-B610-F9D631AE36C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A57BB195-AB18-4EB8-AD3E-0FA4EA2AF67F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4958BB8C-F17F-448A-A8E6-1FE2EA84285B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F41FE4CF-B776-4C42-AAE9-FBDE57C739F1}"/>
 </file>